--- a/documents/테이블정의서.xlsx
+++ b/documents/테이블정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghyun/Desktop/mata/01_work/2024/Quality_Check_Module/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C90789-4F6B-A04A-907A-6551C439982D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD11A1-CDFB-B54F-81AF-D80121F2EAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="500" windowWidth="30080" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블정의서" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
   <si>
     <t>테이블 
 유형</t>
@@ -161,9 +161,6 @@
     <t>ITAMPRD</t>
   </si>
   <si>
-    <t>ITO 계약 정보</t>
-  </si>
-  <si>
     <t>원장성</t>
   </si>
   <si>
@@ -185,25 +182,7 @@
     <t>김OO</t>
   </si>
   <si>
-    <t>ITO_CTRT_REPT_INFO</t>
-  </si>
-  <si>
-    <t>ITO 계약 신청 확인 정보</t>
-  </si>
-  <si>
-    <t>거래성</t>
-  </si>
-  <si>
-    <t>365일</t>
-  </si>
-  <si>
     <t>컬럼삭제</t>
-  </si>
-  <si>
-    <t>ITO_CTRT_REPT_PROCESS</t>
-  </si>
-  <si>
-    <t>계약현황 프로세스</t>
   </si>
   <si>
     <t>-</t>
@@ -266,10 +245,6 @@
     <t>31일</t>
   </si>
   <si>
-    <t>ITO_CTRT_INFO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CAB_RIDES</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -280,6 +255,27 @@
   <si>
     <t>택시운행정보</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZTC_TX_HISTORY</t>
+  </si>
+  <si>
+    <t>CNT_TX_HISTORY</t>
+  </si>
+  <si>
+    <t>ZBZ_TX_HISTORY</t>
+  </si>
+  <si>
+    <t>Zattera 토큰 거래 내역 데이터 테이블</t>
+  </si>
+  <si>
+    <t>Continue 토큰 거래 내역 데이터 테이블</t>
+  </si>
+  <si>
+    <t>Zombiz 토큰 거래 내역 데이터 테이블</t>
+  </si>
+  <si>
+    <t>테이블 생성</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1000,7 @@
   <dimension ref="A1:AL970"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15"/>
@@ -1121,7 +1117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="4" customFormat="1" ht="18">
+    <row r="3" spans="1:38" s="4" customFormat="1" ht="36">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1129,7 +1125,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
@@ -1141,49 +1137,39 @@
         <v>25</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="K3" s="9">
-        <v>41092</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="5">
-        <v>5</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>45034</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="9">
-        <v>44225</v>
+        <v>45034</v>
       </c>
       <c r="R3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" s="4" customFormat="1" ht="18">
+    </row>
+    <row r="4" spans="1:38" s="4" customFormat="1" ht="36">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1203,46 +1189,36 @@
         <v>25</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K4" s="9">
-        <v>41092</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="5">
-        <v>3</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>45034</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="9">
-        <v>44225</v>
+        <v>45034</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="S4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -1262,7 +1238,7 @@
       <c r="AK4" s="12"/>
       <c r="AL4" s="12"/>
     </row>
-    <row r="5" spans="1:38" s="4" customFormat="1" ht="18">
+    <row r="5" spans="1:38" s="4" customFormat="1" ht="36">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1282,46 +1258,36 @@
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="K5" s="9">
-        <v>41092</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="5">
-        <v>10</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>45034</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="9">
-        <v>44221</v>
+        <v>45034</v>
       </c>
       <c r="R5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Y5" s="12"/>
       <c r="AA5" s="11"/>
@@ -1357,46 +1323,46 @@
         <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K6" s="9">
         <v>41092</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O6" s="5">
         <v>11</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="9">
         <v>44225</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="S6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Y6" s="12"/>
       <c r="AA6" s="11"/>
@@ -1432,46 +1398,46 @@
         <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K7" s="9">
         <v>41092</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="N7" s="14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O7" s="5">
         <v>13.5</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="9">
         <v>44225</v>
       </c>
       <c r="R7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Y7" s="12"/>
       <c r="AA7" s="11"/>
@@ -1507,46 +1473,46 @@
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K8" s="9">
         <v>41092</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O8" s="5">
         <v>16</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="9">
         <v>44221</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Y8" s="12"/>
       <c r="AA8" s="11"/>
@@ -1582,46 +1548,46 @@
         <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K9" s="9">
         <v>41092</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O9" s="5">
         <v>18.5</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="9">
         <v>44225</v>
       </c>
       <c r="R9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="T9" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Y9" s="12"/>
       <c r="AA9" s="11"/>
@@ -1657,46 +1623,46 @@
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K10" s="9">
         <v>41092</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="5">
         <v>21</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="9">
         <v>44225</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="S10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Y10" s="12"/>
       <c r="AA10" s="11"/>
@@ -1732,46 +1698,46 @@
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K11" s="9">
         <v>41092</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O11" s="5">
         <v>23.5</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="9">
         <v>44221</v>
       </c>
       <c r="R11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="T11" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Y11" s="12"/>
       <c r="AA11" s="11"/>
@@ -1807,46 +1773,46 @@
         <v>25</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K12" s="9">
         <v>41092</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="O12" s="5">
         <v>26</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="9">
         <v>44225</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="Y12" s="12"/>
       <c r="AA12" s="11"/>
@@ -1882,46 +1848,46 @@
         <v>25</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K13" s="20">
         <v>41092</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O13" s="15">
         <v>28.5</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="20">
         <v>44225</v>
       </c>
       <c r="R13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="T13" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="T13" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="Y13" s="12"/>
       <c r="AA13" s="11"/>

--- a/documents/테이블정의서.xlsx
+++ b/documents/테이블정의서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghyun/Desktop/mata/01_work/2024/Quality_Check_Module/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD11A1-CDFB-B54F-81AF-D80121F2EAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADBA13A-A2B3-8D41-8BC6-D4FC65F3F395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="65">
   <si>
     <t>테이블 
 유형</t>
@@ -146,19 +146,7 @@
     <t>담당자명</t>
   </si>
   <si>
-    <t>ITAM</t>
-  </si>
-  <si>
-    <t>전사통합IT자산관리</t>
-  </si>
-  <si>
-    <t>ITAMMG</t>
-  </si>
-  <si>
     <t>MSSQL</t>
-  </si>
-  <si>
-    <t>ITAMPRD</t>
   </si>
   <si>
     <t>원장성</t>
@@ -174,12 +162,6 @@
   </si>
   <si>
     <t>컬럼추가</t>
-  </si>
-  <si>
-    <t>DWP개발팀</t>
-  </si>
-  <si>
-    <t>김OO</t>
   </si>
   <si>
     <t>컬럼삭제</t>
@@ -249,10 +231,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전사통합IT자산관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>택시운행정보</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -276,6 +254,34 @@
   </si>
   <si>
     <t>테이블 생성</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터DB</t>
+  </si>
+  <si>
+    <t>데이터DB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBSCHEMA</t>
+  </si>
+  <si>
+    <t>DBSCHEMA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATADB</t>
+  </si>
+  <si>
+    <t>DATADB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1000,7 +1006,7 @@
   <dimension ref="A1:AL970"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15"/>
@@ -1122,31 +1128,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K3" s="9">
         <v>45034</v>
@@ -1160,45 +1166,41 @@
         <v>45034</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:38" s="4" customFormat="1" ht="36">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K4" s="9">
         <v>45034</v>
@@ -1212,14 +1214,10 @@
         <v>45034</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="10"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -1243,31 +1241,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K5" s="9">
         <v>45034</v>
@@ -1281,14 +1279,10 @@
         <v>45034</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="10"/>
       <c r="Y5" s="12"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
@@ -1303,67 +1297,63 @@
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
     </row>
-    <row r="6" spans="1:38" s="4" customFormat="1" ht="18">
+    <row r="6" spans="1:38" s="4" customFormat="1" ht="36">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K6" s="9">
         <v>41092</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O6" s="5">
         <v>11</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="9">
         <v>44225</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="10"/>
       <c r="Y6" s="12"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
@@ -1378,67 +1368,63 @@
       <c r="AK6" s="12"/>
       <c r="AL6" s="12"/>
     </row>
-    <row r="7" spans="1:38" s="4" customFormat="1" ht="18">
+    <row r="7" spans="1:38" s="4" customFormat="1" ht="36">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="F7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K7" s="9">
         <v>41092</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O7" s="5">
         <v>13.5</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="9">
         <v>44225</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="10"/>
       <c r="Y7" s="12"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
@@ -1458,62 +1444,58 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="F8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K8" s="9">
         <v>41092</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O8" s="5">
         <v>16</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="9">
         <v>44221</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="10"/>
       <c r="Y8" s="12"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
@@ -1528,67 +1510,63 @@
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
     </row>
-    <row r="9" spans="1:38" s="4" customFormat="1" ht="18">
+    <row r="9" spans="1:38" s="4" customFormat="1" ht="36">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K9" s="9">
         <v>41092</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O9" s="5">
         <v>18.5</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="9">
         <v>44225</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="10"/>
       <c r="Y9" s="12"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
@@ -1603,67 +1581,63 @@
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
     </row>
-    <row r="10" spans="1:38" s="4" customFormat="1" ht="18">
+    <row r="10" spans="1:38" s="4" customFormat="1" ht="36">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J10" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K10" s="9">
         <v>41092</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O10" s="5">
         <v>21</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="9">
         <v>44225</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="10"/>
       <c r="Y10" s="12"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
@@ -1678,67 +1652,63 @@
       <c r="AK10" s="12"/>
       <c r="AL10" s="12"/>
     </row>
-    <row r="11" spans="1:38" s="4" customFormat="1" ht="18">
+    <row r="11" spans="1:38" s="4" customFormat="1" ht="36">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="F11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J11" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K11" s="9">
         <v>41092</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O11" s="5">
         <v>23.5</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="9">
         <v>44221</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="10"/>
       <c r="Y11" s="12"/>
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
@@ -1753,67 +1723,63 @@
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
     </row>
-    <row r="12" spans="1:38" s="4" customFormat="1" ht="18">
+    <row r="12" spans="1:38" s="4" customFormat="1" ht="36">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="F12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J12" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K12" s="9">
         <v>41092</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O12" s="5">
         <v>26</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="9">
         <v>44225</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="10"/>
       <c r="Y12" s="12"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
@@ -1828,67 +1794,63 @@
       <c r="AK12" s="12"/>
       <c r="AL12" s="12"/>
     </row>
-    <row r="13" spans="1:38" s="4" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="1:38" s="4" customFormat="1" ht="37" thickBot="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="F13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>26</v>
-      </c>
       <c r="J13" s="15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K13" s="20">
         <v>41092</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O13" s="15">
         <v>28.5</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="20">
         <v>44225</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="21"/>
       <c r="Y13" s="12"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
